--- a/SpectraViewer/metadatos.xlsx
+++ b/SpectraViewer/metadatos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Profundidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profundidad_num</t>
   </si>
 </sst>
 </file>
@@ -222,14 +225,14 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="58.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.31"/>
@@ -246,7 +249,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
